--- a/DataExtraction1/ProIIExtractedFiles/Vapor Phase.xlsx
+++ b/DataExtraction1/ProIIExtractedFiles/Vapor Phase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gutierrj\source\repos\datatransfer-ProII\DataExtraction1\ProIIExtractedFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{007B0B07-6222-4825-9E24-4A92E5FFF289}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4CCCD8E-C837-42B6-98E5-FBEA91C90E37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EBB3E790-5D60-4B4D-AD1E-4D038EAED106}"/>
   </bookViews>
@@ -2102,7 +2102,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2973,18 +2973,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B20A2C3-F40D-4D8A-AF8C-69ACB51B8994}">
   <dimension ref="A1:F580"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A502" workbookViewId="0">
-      <selection activeCell="E558" sqref="E558"/>
+    <sheetView tabSelected="1" topLeftCell="A224" workbookViewId="0">
+      <selection activeCell="J252" sqref="J252"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="13.85546875" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" customWidth="1"/>
-    <col min="4" max="4" width="33.7109375" customWidth="1"/>
+    <col min="2" max="2" width="13.875" customWidth="1"/>
+    <col min="3" max="3" width="15.25" customWidth="1"/>
+    <col min="4" max="4" width="33.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3004,7 +3004,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>497</v>
       </c>
@@ -3021,7 +3021,7 @@
         <v>0.34524899999999997</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>497</v>
       </c>
@@ -3035,7 +3035,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>497</v>
       </c>
@@ -3052,7 +3052,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>497</v>
       </c>
@@ -3069,7 +3069,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>497</v>
       </c>
@@ -3086,7 +3086,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>497</v>
       </c>
@@ -3103,7 +3103,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>497</v>
       </c>
@@ -3120,7 +3120,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9">
         <v>497</v>
       </c>
@@ -3137,7 +3137,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10">
         <v>497</v>
       </c>
@@ -3151,7 +3151,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11">
         <v>497</v>
       </c>
@@ -3168,7 +3168,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12">
         <v>497</v>
       </c>
@@ -3185,7 +3185,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="A13">
         <v>497</v>
       </c>
@@ -3202,7 +3202,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="A14">
         <v>497</v>
       </c>
@@ -3222,7 +3222,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="A15">
         <v>497</v>
       </c>
@@ -3242,7 +3242,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6">
       <c r="A16">
         <v>497</v>
       </c>
@@ -3259,7 +3259,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6">
       <c r="A17">
         <v>497</v>
       </c>
@@ -3273,7 +3273,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6">
       <c r="A18">
         <v>497</v>
       </c>
@@ -3290,7 +3290,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6">
       <c r="A19">
         <v>497</v>
       </c>
@@ -3307,7 +3307,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6">
       <c r="A20">
         <v>497</v>
       </c>
@@ -3327,7 +3327,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6">
       <c r="A21">
         <v>497</v>
       </c>
@@ -3344,7 +3344,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6">
       <c r="A22">
         <v>497</v>
       </c>
@@ -3361,7 +3361,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6">
       <c r="A23">
         <v>497</v>
       </c>
@@ -3378,7 +3378,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6">
       <c r="A24">
         <v>497</v>
       </c>
@@ -3392,7 +3392,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6">
       <c r="A25">
         <v>497</v>
       </c>
@@ -3409,7 +3409,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6">
       <c r="A26">
         <v>497</v>
       </c>
@@ -3423,7 +3423,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6">
       <c r="A27">
         <v>497</v>
       </c>
@@ -3443,7 +3443,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6">
       <c r="A28">
         <v>497</v>
       </c>
@@ -3463,7 +3463,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6">
       <c r="A29">
         <v>497</v>
       </c>
@@ -3480,7 +3480,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6">
       <c r="A30">
         <v>497</v>
       </c>
@@ -3500,7 +3500,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6">
       <c r="A31">
         <v>497</v>
       </c>
@@ -3517,7 +3517,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6">
       <c r="A32">
         <v>497</v>
       </c>
@@ -3534,7 +3534,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6">
       <c r="A33">
         <v>497</v>
       </c>
@@ -3551,7 +3551,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6">
       <c r="A34">
         <v>497</v>
       </c>
@@ -3568,7 +3568,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6">
       <c r="A35">
         <v>497</v>
       </c>
@@ -3588,7 +3588,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6">
       <c r="A36">
         <v>497</v>
       </c>
@@ -3608,7 +3608,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6">
       <c r="A37">
         <v>497</v>
       </c>
@@ -3628,7 +3628,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6">
       <c r="A38">
         <v>497</v>
       </c>
@@ -3648,7 +3648,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6">
       <c r="A39">
         <v>497</v>
       </c>
@@ -3665,7 +3665,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6">
       <c r="A40">
         <v>497</v>
       </c>
@@ -3685,7 +3685,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6">
       <c r="A41">
         <v>497</v>
       </c>
@@ -3699,7 +3699,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6">
       <c r="A42">
         <v>497</v>
       </c>
@@ -3716,7 +3716,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6">
       <c r="A43">
         <v>497</v>
       </c>
@@ -3730,7 +3730,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6">
       <c r="A44">
         <v>497</v>
       </c>
@@ -3747,7 +3747,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6">
       <c r="A45">
         <v>497</v>
       </c>
@@ -3761,7 +3761,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6">
       <c r="A46">
         <v>497</v>
       </c>
@@ -3781,7 +3781,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6">
       <c r="A47">
         <v>497</v>
       </c>
@@ -3798,7 +3798,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6">
       <c r="A48">
         <v>497</v>
       </c>
@@ -3812,7 +3812,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6">
       <c r="A49">
         <v>497</v>
       </c>
@@ -3826,7 +3826,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6">
       <c r="A50">
         <v>497</v>
       </c>
@@ -3843,7 +3843,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6">
       <c r="A51">
         <v>497</v>
       </c>
@@ -3863,7 +3863,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6">
       <c r="A52">
         <v>497</v>
       </c>
@@ -3880,7 +3880,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6">
       <c r="A53">
         <v>497</v>
       </c>
@@ -3900,7 +3900,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6">
       <c r="A54">
         <v>497</v>
       </c>
@@ -3920,7 +3920,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6">
       <c r="A55">
         <v>497</v>
       </c>
@@ -3937,7 +3937,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6">
       <c r="A56">
         <v>497</v>
       </c>
@@ -3954,7 +3954,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6">
       <c r="A57">
         <v>497</v>
       </c>
@@ -3971,7 +3971,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6">
       <c r="A58">
         <v>497</v>
       </c>
@@ -3988,7 +3988,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6">
       <c r="A59">
         <v>497</v>
       </c>
@@ -4005,7 +4005,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6">
       <c r="A60">
         <v>497</v>
       </c>
@@ -4022,7 +4022,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6">
       <c r="A61">
         <v>497</v>
       </c>
@@ -4039,7 +4039,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6">
       <c r="A62">
         <v>497</v>
       </c>
@@ -4056,7 +4056,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6">
       <c r="A63">
         <v>497</v>
       </c>
@@ -4073,7 +4073,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6">
       <c r="A64">
         <v>497</v>
       </c>
@@ -4093,7 +4093,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6">
       <c r="A65">
         <v>497</v>
       </c>
@@ -4113,7 +4113,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6">
       <c r="A66">
         <v>497</v>
       </c>
@@ -4133,7 +4133,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6">
       <c r="A67">
         <v>497</v>
       </c>
@@ -4153,7 +4153,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6">
       <c r="A68">
         <v>497</v>
       </c>
@@ -4173,7 +4173,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6">
       <c r="A69">
         <v>497</v>
       </c>
@@ -4193,7 +4193,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6">
       <c r="A70">
         <v>497</v>
       </c>
@@ -4213,7 +4213,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6">
       <c r="A71">
         <v>497</v>
       </c>
@@ -4233,7 +4233,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6">
       <c r="A72">
         <v>497</v>
       </c>
@@ -4253,7 +4253,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6">
       <c r="A73">
         <v>497</v>
       </c>
@@ -4273,7 +4273,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6">
       <c r="A74">
         <v>497</v>
       </c>
@@ -4293,7 +4293,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6">
       <c r="A75">
         <v>497</v>
       </c>
@@ -4313,7 +4313,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6">
       <c r="A76">
         <v>497</v>
       </c>
@@ -4333,7 +4333,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6">
       <c r="A77">
         <v>497</v>
       </c>
@@ -4353,7 +4353,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6">
       <c r="A78">
         <v>497</v>
       </c>
@@ -4373,7 +4373,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6">
       <c r="A79">
         <v>497</v>
       </c>
@@ -4393,7 +4393,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6">
       <c r="A80">
         <v>497</v>
       </c>
@@ -4413,7 +4413,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6">
       <c r="A81">
         <v>497</v>
       </c>
@@ -4433,7 +4433,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6">
       <c r="A82">
         <v>497</v>
       </c>
@@ -4453,7 +4453,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6">
       <c r="A83">
         <v>497</v>
       </c>
@@ -4473,7 +4473,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6">
       <c r="A84">
         <v>497</v>
       </c>
@@ -4493,7 +4493,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6">
       <c r="A85">
         <v>497</v>
       </c>
@@ -4513,7 +4513,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6">
       <c r="A86">
         <v>497</v>
       </c>
@@ -4533,7 +4533,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6">
       <c r="A87">
         <v>497</v>
       </c>
@@ -4553,7 +4553,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6">
       <c r="A88">
         <v>497</v>
       </c>
@@ -4573,7 +4573,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6">
       <c r="A89">
         <v>497</v>
       </c>
@@ -4593,7 +4593,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6">
       <c r="A90">
         <v>497</v>
       </c>
@@ -4613,7 +4613,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6">
       <c r="A91">
         <v>497</v>
       </c>
@@ -4633,7 +4633,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6">
       <c r="A92">
         <v>497</v>
       </c>
@@ -4653,7 +4653,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6">
       <c r="A93">
         <v>497</v>
       </c>
@@ -4673,7 +4673,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6">
       <c r="A94">
         <v>497</v>
       </c>
@@ -4693,7 +4693,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6">
       <c r="A95">
         <v>497</v>
       </c>
@@ -4713,7 +4713,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6">
       <c r="A96">
         <v>497</v>
       </c>
@@ -4733,7 +4733,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6">
       <c r="A97">
         <v>497</v>
       </c>
@@ -4753,7 +4753,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6">
       <c r="A98">
         <v>497</v>
       </c>
@@ -4773,7 +4773,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6">
       <c r="A99">
         <v>497</v>
       </c>
@@ -4793,7 +4793,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6">
       <c r="A100">
         <v>497</v>
       </c>
@@ -4813,7 +4813,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6">
       <c r="A101">
         <v>497</v>
       </c>
@@ -4833,7 +4833,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6">
       <c r="A102">
         <v>497</v>
       </c>
@@ -4853,7 +4853,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6">
       <c r="A103">
         <v>497</v>
       </c>
@@ -4873,7 +4873,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6">
       <c r="A104">
         <v>497</v>
       </c>
@@ -4893,7 +4893,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6">
       <c r="A105">
         <v>497</v>
       </c>
@@ -4913,7 +4913,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6">
       <c r="A106">
         <v>497</v>
       </c>
@@ -4933,7 +4933,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6">
       <c r="A107">
         <v>497</v>
       </c>
@@ -4950,7 +4950,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6">
       <c r="A108">
         <v>497</v>
       </c>
@@ -4967,7 +4967,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6">
       <c r="A109">
         <v>497</v>
       </c>
@@ -4984,7 +4984,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6">
       <c r="A110">
         <v>497</v>
       </c>
@@ -5001,7 +5001,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6">
       <c r="A111">
         <v>497</v>
       </c>
@@ -5018,7 +5018,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6">
       <c r="A112">
         <v>497</v>
       </c>
@@ -5035,7 +5035,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6">
       <c r="A113">
         <v>497</v>
       </c>
@@ -5052,7 +5052,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6">
       <c r="A114">
         <v>497</v>
       </c>
@@ -5069,7 +5069,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6">
       <c r="A115">
         <v>497</v>
       </c>
@@ -5086,7 +5086,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6">
       <c r="A116">
         <v>497</v>
       </c>
@@ -5103,7 +5103,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6">
       <c r="A117">
         <v>497</v>
       </c>
@@ -5120,7 +5120,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6">
       <c r="A118">
         <v>497</v>
       </c>
@@ -5137,7 +5137,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6">
       <c r="A119">
         <v>497</v>
       </c>
@@ -5154,7 +5154,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6">
       <c r="A120">
         <v>497</v>
       </c>
@@ -5171,7 +5171,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6">
       <c r="A121">
         <v>497</v>
       </c>
@@ -5188,7 +5188,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6">
       <c r="A122">
         <v>497</v>
       </c>
@@ -5205,7 +5205,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6">
       <c r="A123">
         <v>497</v>
       </c>
@@ -5222,7 +5222,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6">
       <c r="A124">
         <v>497</v>
       </c>
@@ -5239,7 +5239,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6">
       <c r="A125">
         <v>497</v>
       </c>
@@ -5256,7 +5256,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6">
       <c r="A126">
         <v>497</v>
       </c>
@@ -5273,7 +5273,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6">
       <c r="A127">
         <v>497</v>
       </c>
@@ -5290,7 +5290,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6">
       <c r="A128">
         <v>497</v>
       </c>
@@ -5307,7 +5307,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6">
       <c r="A129">
         <v>497</v>
       </c>
@@ -5324,7 +5324,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6">
       <c r="A130">
         <v>497</v>
       </c>
@@ -5341,7 +5341,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6">
       <c r="A131">
         <v>497</v>
       </c>
@@ -5358,7 +5358,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6">
       <c r="A132">
         <v>497</v>
       </c>
@@ -5375,7 +5375,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6">
       <c r="A133">
         <v>497</v>
       </c>
@@ -5392,7 +5392,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6">
       <c r="A134">
         <v>497</v>
       </c>
@@ -5409,7 +5409,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6">
       <c r="A135">
         <v>497</v>
       </c>
@@ -5429,7 +5429,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6">
       <c r="A136">
         <v>497</v>
       </c>
@@ -5449,7 +5449,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6">
       <c r="A137">
         <v>497</v>
       </c>
@@ -5469,7 +5469,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6">
       <c r="A138">
         <v>497</v>
       </c>
@@ -5489,7 +5489,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6">
       <c r="A139">
         <v>497</v>
       </c>
@@ -5509,7 +5509,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6">
       <c r="A140">
         <v>497</v>
       </c>
@@ -5529,7 +5529,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6">
       <c r="A141">
         <v>497</v>
       </c>
@@ -5549,7 +5549,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6">
       <c r="A142">
         <v>497</v>
       </c>
@@ -5569,7 +5569,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6">
       <c r="A143">
         <v>497</v>
       </c>
@@ -5589,7 +5589,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6">
       <c r="A144">
         <v>497</v>
       </c>
@@ -5609,7 +5609,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6">
       <c r="A145">
         <v>497</v>
       </c>
@@ -5629,7 +5629,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6">
       <c r="A146">
         <v>497</v>
       </c>
@@ -5649,7 +5649,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6">
       <c r="A147">
         <v>497</v>
       </c>
@@ -5669,7 +5669,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6">
       <c r="A148">
         <v>497</v>
       </c>
@@ -5689,7 +5689,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6">
       <c r="A149">
         <v>497</v>
       </c>
@@ -5709,7 +5709,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6">
       <c r="A150">
         <v>497</v>
       </c>
@@ -5729,7 +5729,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6">
       <c r="A151">
         <v>497</v>
       </c>
@@ -5749,7 +5749,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6">
       <c r="A152">
         <v>497</v>
       </c>
@@ -5769,7 +5769,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6">
       <c r="A153">
         <v>497</v>
       </c>
@@ -5789,7 +5789,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6">
       <c r="A154">
         <v>497</v>
       </c>
@@ -5809,7 +5809,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6">
       <c r="A155">
         <v>497</v>
       </c>
@@ -5829,7 +5829,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6">
       <c r="A156">
         <v>497</v>
       </c>
@@ -5849,7 +5849,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6">
       <c r="A157">
         <v>497</v>
       </c>
@@ -5869,7 +5869,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6">
       <c r="A158">
         <v>497</v>
       </c>
@@ -5889,7 +5889,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6">
       <c r="A159">
         <v>497</v>
       </c>
@@ -5909,7 +5909,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6">
       <c r="A160">
         <v>497</v>
       </c>
@@ -5929,7 +5929,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:6">
       <c r="A161">
         <v>497</v>
       </c>
@@ -5949,7 +5949,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:6">
       <c r="A162">
         <v>497</v>
       </c>
@@ -5969,7 +5969,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:6">
       <c r="A163">
         <v>497</v>
       </c>
@@ -5989,7 +5989,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:6">
       <c r="A164">
         <v>497</v>
       </c>
@@ -6009,7 +6009,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:6">
       <c r="A165">
         <v>497</v>
       </c>
@@ -6029,7 +6029,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:6">
       <c r="A166">
         <v>497</v>
       </c>
@@ -6049,7 +6049,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:6">
       <c r="A167">
         <v>497</v>
       </c>
@@ -6069,7 +6069,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:6">
       <c r="A168">
         <v>497</v>
       </c>
@@ -6089,7 +6089,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:6">
       <c r="A169">
         <v>497</v>
       </c>
@@ -6109,7 +6109,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:6">
       <c r="A170">
         <v>497</v>
       </c>
@@ -6129,7 +6129,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:6">
       <c r="A171">
         <v>497</v>
       </c>
@@ -6149,7 +6149,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:6">
       <c r="A172">
         <v>497</v>
       </c>
@@ -6169,7 +6169,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:6">
       <c r="A173">
         <v>497</v>
       </c>
@@ -6189,7 +6189,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:6">
       <c r="A174">
         <v>497</v>
       </c>
@@ -6209,7 +6209,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:6">
       <c r="A175">
         <v>497</v>
       </c>
@@ -6229,7 +6229,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:6">
       <c r="A176">
         <v>497</v>
       </c>
@@ -6249,7 +6249,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:6">
       <c r="A177">
         <v>497</v>
       </c>
@@ -6266,7 +6266,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:6">
       <c r="A178">
         <v>497</v>
       </c>
@@ -6283,7 +6283,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:6">
       <c r="A179">
         <v>497</v>
       </c>
@@ -6300,7 +6300,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:6">
       <c r="A180">
         <v>497</v>
       </c>
@@ -6317,7 +6317,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:6">
       <c r="A181">
         <v>497</v>
       </c>
@@ -6334,7 +6334,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:6">
       <c r="A182">
         <v>497</v>
       </c>
@@ -6351,7 +6351,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:6">
       <c r="A183">
         <v>497</v>
       </c>
@@ -6368,7 +6368,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:6">
       <c r="A184">
         <v>497</v>
       </c>
@@ -6385,7 +6385,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:6">
       <c r="A185">
         <v>497</v>
       </c>
@@ -6402,7 +6402,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:6">
       <c r="A186">
         <v>497</v>
       </c>
@@ -6419,7 +6419,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:6">
       <c r="A187">
         <v>497</v>
       </c>
@@ -6436,7 +6436,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:6">
       <c r="A188">
         <v>497</v>
       </c>
@@ -6453,7 +6453,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:6">
       <c r="A189">
         <v>497</v>
       </c>
@@ -6470,7 +6470,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:6">
       <c r="A190">
         <v>497</v>
       </c>
@@ -6487,7 +6487,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:6">
       <c r="A191">
         <v>497</v>
       </c>
@@ -6507,7 +6507,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:6">
       <c r="A192">
         <v>497</v>
       </c>
@@ -6527,7 +6527,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:6">
       <c r="A193">
         <v>497</v>
       </c>
@@ -6547,7 +6547,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:6">
       <c r="A194">
         <v>497</v>
       </c>
@@ -6567,7 +6567,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:6">
       <c r="A195">
         <v>497</v>
       </c>
@@ -6587,7 +6587,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:6">
       <c r="A196">
         <v>497</v>
       </c>
@@ -6607,7 +6607,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:6">
       <c r="A197">
         <v>497</v>
       </c>
@@ -6627,7 +6627,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:6">
       <c r="A198">
         <v>497</v>
       </c>
@@ -6647,7 +6647,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:6">
       <c r="A199">
         <v>497</v>
       </c>
@@ -6667,7 +6667,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:6">
       <c r="A200">
         <v>497</v>
       </c>
@@ -6687,7 +6687,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:6">
       <c r="A201">
         <v>497</v>
       </c>
@@ -6707,7 +6707,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:6">
       <c r="A202">
         <v>497</v>
       </c>
@@ -6727,7 +6727,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:6">
       <c r="A203">
         <v>497</v>
       </c>
@@ -6747,7 +6747,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:6">
       <c r="A204">
         <v>497</v>
       </c>
@@ -6767,7 +6767,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:6">
       <c r="A205">
         <v>497</v>
       </c>
@@ -6787,7 +6787,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:6">
       <c r="A206">
         <v>497</v>
       </c>
@@ -6807,7 +6807,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:6">
       <c r="A207">
         <v>497</v>
       </c>
@@ -6827,7 +6827,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:6">
       <c r="A208">
         <v>497</v>
       </c>
@@ -6847,7 +6847,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:6">
       <c r="A209">
         <v>497</v>
       </c>
@@ -6867,7 +6867,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:6">
       <c r="A210">
         <v>497</v>
       </c>
@@ -6887,7 +6887,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:6">
       <c r="A211">
         <v>497</v>
       </c>
@@ -6907,7 +6907,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:6">
       <c r="A212">
         <v>497</v>
       </c>
@@ -6927,7 +6927,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:6">
       <c r="A213">
         <v>497</v>
       </c>
@@ -6947,7 +6947,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:6">
       <c r="A214">
         <v>497</v>
       </c>
@@ -6967,7 +6967,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:6">
       <c r="A215">
         <v>497</v>
       </c>
@@ -6987,7 +6987,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:6">
       <c r="A216">
         <v>497</v>
       </c>
@@ -7007,7 +7007,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:6">
       <c r="A217">
         <v>497</v>
       </c>
@@ -7027,7 +7027,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:6">
       <c r="A218">
         <v>497</v>
       </c>
@@ -7047,7 +7047,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:6">
       <c r="A219">
         <v>497</v>
       </c>
@@ -7064,7 +7064,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:6">
       <c r="A220">
         <v>497</v>
       </c>
@@ -7081,7 +7081,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:6">
       <c r="A221">
         <v>497</v>
       </c>
@@ -7098,7 +7098,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:6">
       <c r="A222">
         <v>497</v>
       </c>
@@ -7115,7 +7115,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:6">
       <c r="A223">
         <v>497</v>
       </c>
@@ -7132,7 +7132,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:6">
       <c r="A224">
         <v>497</v>
       </c>
@@ -7149,7 +7149,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:6">
       <c r="A225">
         <v>497</v>
       </c>
@@ -7166,7 +7166,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:6">
       <c r="A226">
         <v>497</v>
       </c>
@@ -7183,7 +7183,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:6">
       <c r="A227">
         <v>497</v>
       </c>
@@ -7200,7 +7200,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:6">
       <c r="A228">
         <v>497</v>
       </c>
@@ -7217,7 +7217,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:6">
       <c r="A229">
         <v>497</v>
       </c>
@@ -7234,7 +7234,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:6">
       <c r="A230">
         <v>497</v>
       </c>
@@ -7251,7 +7251,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:6">
       <c r="A231">
         <v>497</v>
       </c>
@@ -7268,7 +7268,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:6">
       <c r="A232">
         <v>497</v>
       </c>
@@ -7285,7 +7285,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:6">
       <c r="A233">
         <v>497</v>
       </c>
@@ -7299,7 +7299,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:6">
       <c r="A234">
         <v>497</v>
       </c>
@@ -7313,7 +7313,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:6">
       <c r="A235">
         <v>497</v>
       </c>
@@ -7323,7 +7323,7 @@
       <c r="C235" t="s">
         <v>7</v>
       </c>
-      <c r="D235" t="s">
+      <c r="D235" s="2" t="s">
         <v>326</v>
       </c>
       <c r="E235">
@@ -7333,7 +7333,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:6">
       <c r="A236">
         <v>497</v>
       </c>
@@ -7343,7 +7343,7 @@
       <c r="C236" t="s">
         <v>7</v>
       </c>
-      <c r="D236" t="s">
+      <c r="D236" s="2" t="s">
         <v>327</v>
       </c>
       <c r="E236">
@@ -7353,7 +7353,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:6">
       <c r="A237">
         <v>497</v>
       </c>
@@ -7363,7 +7363,7 @@
       <c r="C237" t="s">
         <v>7</v>
       </c>
-      <c r="D237" t="s">
+      <c r="D237" s="2" t="s">
         <v>328</v>
       </c>
       <c r="E237">
@@ -7373,7 +7373,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:6">
       <c r="A238">
         <v>497</v>
       </c>
@@ -7383,7 +7383,7 @@
       <c r="C238" t="s">
         <v>7</v>
       </c>
-      <c r="D238" t="s">
+      <c r="D238" s="2" t="s">
         <v>329</v>
       </c>
       <c r="E238">
@@ -7393,7 +7393,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:6">
       <c r="A239">
         <v>497</v>
       </c>
@@ -7403,7 +7403,7 @@
       <c r="C239" t="s">
         <v>7</v>
       </c>
-      <c r="D239" t="s">
+      <c r="D239" s="2" t="s">
         <v>330</v>
       </c>
       <c r="E239">
@@ -7413,7 +7413,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:6">
       <c r="A240">
         <v>497</v>
       </c>
@@ -7423,7 +7423,7 @@
       <c r="C240" t="s">
         <v>7</v>
       </c>
-      <c r="D240" t="s">
+      <c r="D240" s="2" t="s">
         <v>331</v>
       </c>
       <c r="E240" s="1" t="s">
@@ -7433,7 +7433,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:6">
       <c r="A241">
         <v>497</v>
       </c>
@@ -7443,7 +7443,7 @@
       <c r="C241" t="s">
         <v>7</v>
       </c>
-      <c r="D241" t="s">
+      <c r="D241" s="2" t="s">
         <v>333</v>
       </c>
       <c r="E241">
@@ -7453,7 +7453,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:6">
       <c r="A242">
         <v>497</v>
       </c>
@@ -7463,7 +7463,7 @@
       <c r="C242" t="s">
         <v>7</v>
       </c>
-      <c r="D242" t="s">
+      <c r="D242" s="2" t="s">
         <v>334</v>
       </c>
       <c r="E242" s="1" t="s">
@@ -7473,7 +7473,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:6">
       <c r="A243">
         <v>497</v>
       </c>
@@ -7483,7 +7483,7 @@
       <c r="C243" t="s">
         <v>7</v>
       </c>
-      <c r="D243" t="s">
+      <c r="D243" s="2" t="s">
         <v>336</v>
       </c>
       <c r="E243" s="1" t="s">
@@ -7493,7 +7493,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:6">
       <c r="A244">
         <v>497</v>
       </c>
@@ -7503,7 +7503,7 @@
       <c r="C244" t="s">
         <v>7</v>
       </c>
-      <c r="D244" t="s">
+      <c r="D244" s="2" t="s">
         <v>338</v>
       </c>
       <c r="E244" s="1" t="s">
@@ -7513,7 +7513,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:6">
       <c r="A245">
         <v>497</v>
       </c>
@@ -7523,7 +7523,7 @@
       <c r="C245" t="s">
         <v>7</v>
       </c>
-      <c r="D245" t="s">
+      <c r="D245" s="2" t="s">
         <v>340</v>
       </c>
       <c r="E245" s="1" t="s">
@@ -7533,7 +7533,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:6">
       <c r="A246">
         <v>497</v>
       </c>
@@ -7543,7 +7543,7 @@
       <c r="C246" t="s">
         <v>7</v>
       </c>
-      <c r="D246" t="s">
+      <c r="D246" s="2" t="s">
         <v>342</v>
       </c>
       <c r="E246">
@@ -7553,7 +7553,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:6">
       <c r="A247">
         <v>497</v>
       </c>
@@ -7563,7 +7563,7 @@
       <c r="C247" t="s">
         <v>7</v>
       </c>
-      <c r="D247" t="s">
+      <c r="D247" s="2" t="s">
         <v>343</v>
       </c>
       <c r="E247" s="1" t="s">
@@ -7573,7 +7573,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:6">
       <c r="A248">
         <v>497</v>
       </c>
@@ -7583,7 +7583,7 @@
       <c r="C248" t="s">
         <v>7</v>
       </c>
-      <c r="D248" t="s">
+      <c r="D248" s="2" t="s">
         <v>345</v>
       </c>
       <c r="E248">
@@ -7593,7 +7593,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:6">
       <c r="A249">
         <v>497</v>
       </c>
@@ -7603,7 +7603,7 @@
       <c r="C249" t="s">
         <v>7</v>
       </c>
-      <c r="D249" t="s">
+      <c r="D249" s="2" t="s">
         <v>346</v>
       </c>
       <c r="E249">
@@ -7613,7 +7613,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:6">
       <c r="A250">
         <v>497</v>
       </c>
@@ -7623,7 +7623,7 @@
       <c r="C250" t="s">
         <v>7</v>
       </c>
-      <c r="D250" t="s">
+      <c r="D250" s="2" t="s">
         <v>347</v>
       </c>
       <c r="E250">
@@ -7633,7 +7633,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:6">
       <c r="A251">
         <v>497</v>
       </c>
@@ -7643,7 +7643,7 @@
       <c r="C251" t="s">
         <v>7</v>
       </c>
-      <c r="D251" t="s">
+      <c r="D251" s="2" t="s">
         <v>348</v>
       </c>
       <c r="E251">
@@ -7653,7 +7653,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:6">
       <c r="A252">
         <v>497</v>
       </c>
@@ -7663,7 +7663,7 @@
       <c r="C252" t="s">
         <v>7</v>
       </c>
-      <c r="D252" t="s">
+      <c r="D252" s="2" t="s">
         <v>349</v>
       </c>
       <c r="E252">
@@ -7673,7 +7673,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:6">
       <c r="A253">
         <v>497</v>
       </c>
@@ -7683,7 +7683,7 @@
       <c r="C253" t="s">
         <v>7</v>
       </c>
-      <c r="D253" t="s">
+      <c r="D253" s="2" t="s">
         <v>350</v>
       </c>
       <c r="E253">
@@ -7693,7 +7693,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:6">
       <c r="A254">
         <v>497</v>
       </c>
@@ -7703,7 +7703,7 @@
       <c r="C254" t="s">
         <v>7</v>
       </c>
-      <c r="D254" t="s">
+      <c r="D254" s="2" t="s">
         <v>351</v>
       </c>
       <c r="E254">
@@ -7713,7 +7713,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:6">
       <c r="A255">
         <v>497</v>
       </c>
@@ -7723,7 +7723,7 @@
       <c r="C255" t="s">
         <v>7</v>
       </c>
-      <c r="D255" t="s">
+      <c r="D255" s="2" t="s">
         <v>352</v>
       </c>
       <c r="E255">
@@ -7733,7 +7733,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:6">
       <c r="A256">
         <v>497</v>
       </c>
@@ -7743,7 +7743,7 @@
       <c r="C256" t="s">
         <v>7</v>
       </c>
-      <c r="D256" t="s">
+      <c r="D256" s="2" t="s">
         <v>353</v>
       </c>
       <c r="E256">
@@ -7753,7 +7753,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:6">
       <c r="A257">
         <v>497</v>
       </c>
@@ -7763,7 +7763,7 @@
       <c r="C257" t="s">
         <v>7</v>
       </c>
-      <c r="D257" t="s">
+      <c r="D257" s="2" t="s">
         <v>354</v>
       </c>
       <c r="E257">
@@ -7773,7 +7773,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:6">
       <c r="A258">
         <v>497</v>
       </c>
@@ -7783,7 +7783,7 @@
       <c r="C258" t="s">
         <v>7</v>
       </c>
-      <c r="D258" t="s">
+      <c r="D258" s="2" t="s">
         <v>355</v>
       </c>
       <c r="E258">
@@ -7793,7 +7793,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:6">
       <c r="A259">
         <v>497</v>
       </c>
@@ -7803,7 +7803,7 @@
       <c r="C259" t="s">
         <v>7</v>
       </c>
-      <c r="D259" t="s">
+      <c r="D259" s="2" t="s">
         <v>356</v>
       </c>
       <c r="E259">
@@ -7813,7 +7813,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:6">
       <c r="A260">
         <v>497</v>
       </c>
@@ -7823,7 +7823,7 @@
       <c r="C260" t="s">
         <v>7</v>
       </c>
-      <c r="D260" t="s">
+      <c r="D260" s="2" t="s">
         <v>357</v>
       </c>
       <c r="E260">
@@ -7833,7 +7833,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:6">
       <c r="A261">
         <v>497</v>
       </c>
@@ -7843,7 +7843,7 @@
       <c r="C261" t="s">
         <v>7</v>
       </c>
-      <c r="D261" t="s">
+      <c r="D261" s="2" t="s">
         <v>358</v>
       </c>
       <c r="E261">
@@ -7853,7 +7853,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:6">
       <c r="A262">
         <v>497</v>
       </c>
@@ -7863,7 +7863,7 @@
       <c r="C262" t="s">
         <v>7</v>
       </c>
-      <c r="D262" t="s">
+      <c r="D262" s="2" t="s">
         <v>359</v>
       </c>
       <c r="E262">
@@ -7873,7 +7873,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:6">
       <c r="A263">
         <v>497</v>
       </c>
@@ -7883,7 +7883,7 @@
       <c r="C263" t="s">
         <v>7</v>
       </c>
-      <c r="D263" t="s">
+      <c r="D263" s="2" t="s">
         <v>360</v>
       </c>
       <c r="E263" s="1" t="s">
@@ -7893,7 +7893,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:6">
       <c r="A264">
         <v>497</v>
       </c>
@@ -7903,7 +7903,7 @@
       <c r="C264" t="s">
         <v>7</v>
       </c>
-      <c r="D264" t="s">
+      <c r="D264" s="2" t="s">
         <v>362</v>
       </c>
       <c r="E264" s="1" t="s">
@@ -7913,7 +7913,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:6">
       <c r="A265">
         <v>497</v>
       </c>
@@ -7923,7 +7923,7 @@
       <c r="C265" t="s">
         <v>7</v>
       </c>
-      <c r="D265" t="s">
+      <c r="D265" s="2" t="s">
         <v>364</v>
       </c>
       <c r="E265">
@@ -7933,7 +7933,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:6">
       <c r="A266">
         <v>497</v>
       </c>
@@ -7943,7 +7943,7 @@
       <c r="C266" t="s">
         <v>7</v>
       </c>
-      <c r="D266" t="s">
+      <c r="D266" s="2" t="s">
         <v>365</v>
       </c>
       <c r="E266" s="1" t="s">
@@ -7953,7 +7953,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:6">
       <c r="A267">
         <v>497</v>
       </c>
@@ -7963,7 +7963,7 @@
       <c r="C267" t="s">
         <v>7</v>
       </c>
-      <c r="D267" t="s">
+      <c r="D267" s="2" t="s">
         <v>367</v>
       </c>
       <c r="E267" s="1" t="s">
@@ -7973,7 +7973,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:6">
       <c r="A268">
         <v>497</v>
       </c>
@@ -7983,7 +7983,7 @@
       <c r="C268" t="s">
         <v>7</v>
       </c>
-      <c r="D268" t="s">
+      <c r="D268" s="2" t="s">
         <v>369</v>
       </c>
       <c r="E268" s="1" t="s">
@@ -7993,7 +7993,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:6">
       <c r="A269">
         <v>497</v>
       </c>
@@ -8003,7 +8003,7 @@
       <c r="C269" t="s">
         <v>7</v>
       </c>
-      <c r="D269" t="s">
+      <c r="D269" s="2" t="s">
         <v>371</v>
       </c>
       <c r="E269" s="1" t="s">
@@ -8013,7 +8013,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:6">
       <c r="A270">
         <v>497</v>
       </c>
@@ -8023,7 +8023,7 @@
       <c r="C270" t="s">
         <v>7</v>
       </c>
-      <c r="D270" t="s">
+      <c r="D270" s="2" t="s">
         <v>373</v>
       </c>
       <c r="E270" s="1" t="s">
@@ -8033,7 +8033,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:6">
       <c r="A271">
         <v>497</v>
       </c>
@@ -8043,7 +8043,7 @@
       <c r="C271" t="s">
         <v>7</v>
       </c>
-      <c r="D271" t="s">
+      <c r="D271" s="2" t="s">
         <v>375</v>
       </c>
       <c r="E271" s="1" t="s">
@@ -8053,7 +8053,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:6">
       <c r="A272">
         <v>497</v>
       </c>
@@ -8063,7 +8063,7 @@
       <c r="C272" t="s">
         <v>7</v>
       </c>
-      <c r="D272" t="s">
+      <c r="D272" s="2" t="s">
         <v>377</v>
       </c>
       <c r="E272" s="1" t="s">
@@ -8073,7 +8073,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:6">
       <c r="A273">
         <v>497</v>
       </c>
@@ -8083,7 +8083,7 @@
       <c r="C273" t="s">
         <v>7</v>
       </c>
-      <c r="D273" t="s">
+      <c r="D273" s="2" t="s">
         <v>379</v>
       </c>
       <c r="E273" s="1" t="s">
@@ -8093,7 +8093,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:6">
       <c r="A274">
         <v>497</v>
       </c>
@@ -8103,7 +8103,7 @@
       <c r="C274" t="s">
         <v>7</v>
       </c>
-      <c r="D274" t="s">
+      <c r="D274" s="2" t="s">
         <v>381</v>
       </c>
       <c r="E274">
@@ -8113,7 +8113,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:6">
       <c r="A275">
         <v>497</v>
       </c>
@@ -8123,7 +8123,7 @@
       <c r="C275" t="s">
         <v>7</v>
       </c>
-      <c r="D275" t="s">
+      <c r="D275" s="2" t="s">
         <v>382</v>
       </c>
       <c r="E275" s="1" t="s">
@@ -8133,7 +8133,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:6">
       <c r="A276">
         <v>497</v>
       </c>
@@ -8143,7 +8143,7 @@
       <c r="C276" t="s">
         <v>7</v>
       </c>
-      <c r="D276" t="s">
+      <c r="D276" s="2" t="s">
         <v>384</v>
       </c>
       <c r="E276">
@@ -8153,7 +8153,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:6">
       <c r="A277">
         <v>497</v>
       </c>
@@ -8163,14 +8163,14 @@
       <c r="C277" t="s">
         <v>7</v>
       </c>
-      <c r="D277" t="s">
+      <c r="D277" s="2" t="s">
         <v>385</v>
       </c>
       <c r="F277" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:6">
       <c r="A278">
         <v>497</v>
       </c>
@@ -8180,14 +8180,14 @@
       <c r="C278" t="s">
         <v>7</v>
       </c>
-      <c r="D278" t="s">
+      <c r="D278" s="2" t="s">
         <v>386</v>
       </c>
       <c r="F278" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:6">
       <c r="A279">
         <v>497</v>
       </c>
@@ -8197,14 +8197,14 @@
       <c r="C279" t="s">
         <v>7</v>
       </c>
-      <c r="D279" t="s">
+      <c r="D279" s="2" t="s">
         <v>387</v>
       </c>
       <c r="F279" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:6">
       <c r="A280">
         <v>497</v>
       </c>
@@ -8214,14 +8214,14 @@
       <c r="C280" t="s">
         <v>7</v>
       </c>
-      <c r="D280" t="s">
+      <c r="D280" s="2" t="s">
         <v>388</v>
       </c>
       <c r="F280" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:6">
       <c r="A281">
         <v>497</v>
       </c>
@@ -8231,14 +8231,14 @@
       <c r="C281" t="s">
         <v>7</v>
       </c>
-      <c r="D281" t="s">
+      <c r="D281" s="2" t="s">
         <v>389</v>
       </c>
       <c r="F281" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:6">
       <c r="A282">
         <v>497</v>
       </c>
@@ -8248,14 +8248,14 @@
       <c r="C282" t="s">
         <v>7</v>
       </c>
-      <c r="D282" t="s">
+      <c r="D282" s="2" t="s">
         <v>390</v>
       </c>
       <c r="F282" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:6">
       <c r="A283">
         <v>497</v>
       </c>
@@ -8265,14 +8265,14 @@
       <c r="C283" t="s">
         <v>7</v>
       </c>
-      <c r="D283" t="s">
+      <c r="D283" s="2" t="s">
         <v>391</v>
       </c>
       <c r="F283" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:6">
       <c r="A284">
         <v>497</v>
       </c>
@@ -8282,14 +8282,14 @@
       <c r="C284" t="s">
         <v>7</v>
       </c>
-      <c r="D284" t="s">
+      <c r="D284" s="2" t="s">
         <v>392</v>
       </c>
       <c r="F284" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:6">
       <c r="A285">
         <v>497</v>
       </c>
@@ -8299,14 +8299,14 @@
       <c r="C285" t="s">
         <v>7</v>
       </c>
-      <c r="D285" t="s">
+      <c r="D285" s="2" t="s">
         <v>393</v>
       </c>
       <c r="F285" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:6">
       <c r="A286">
         <v>497</v>
       </c>
@@ -8316,14 +8316,14 @@
       <c r="C286" t="s">
         <v>7</v>
       </c>
-      <c r="D286" t="s">
+      <c r="D286" s="2" t="s">
         <v>394</v>
       </c>
       <c r="F286" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:6">
       <c r="A287">
         <v>497</v>
       </c>
@@ -8333,14 +8333,14 @@
       <c r="C287" t="s">
         <v>7</v>
       </c>
-      <c r="D287" t="s">
+      <c r="D287" s="2" t="s">
         <v>395</v>
       </c>
       <c r="F287" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:6">
       <c r="A288">
         <v>497</v>
       </c>
@@ -8350,14 +8350,14 @@
       <c r="C288" t="s">
         <v>7</v>
       </c>
-      <c r="D288" t="s">
+      <c r="D288" s="2" t="s">
         <v>396</v>
       </c>
       <c r="F288" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:6">
       <c r="A289">
         <v>497</v>
       </c>
@@ -8367,14 +8367,14 @@
       <c r="C289" t="s">
         <v>7</v>
       </c>
-      <c r="D289" t="s">
+      <c r="D289" s="2" t="s">
         <v>397</v>
       </c>
       <c r="F289" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:6">
       <c r="A290">
         <v>497</v>
       </c>
@@ -8384,14 +8384,14 @@
       <c r="C290" t="s">
         <v>7</v>
       </c>
-      <c r="D290" t="s">
+      <c r="D290" s="2" t="s">
         <v>398</v>
       </c>
       <c r="F290" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:6">
       <c r="A291">
         <v>497</v>
       </c>
@@ -8405,7 +8405,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:6">
       <c r="A292">
         <v>497</v>
       </c>
@@ -8419,7 +8419,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:6">
       <c r="A293">
         <v>497</v>
       </c>
@@ -8433,7 +8433,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:6">
       <c r="A294">
         <v>497</v>
       </c>
@@ -8447,7 +8447,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:6">
       <c r="A295">
         <v>497</v>
       </c>
@@ -8461,7 +8461,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:6">
       <c r="A296">
         <v>497</v>
       </c>
@@ -8478,7 +8478,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:6">
       <c r="A297">
         <v>497</v>
       </c>
@@ -8495,7 +8495,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:6">
       <c r="A298">
         <v>497</v>
       </c>
@@ -8512,7 +8512,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:6">
       <c r="A299">
         <v>497</v>
       </c>
@@ -8526,7 +8526,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:6">
       <c r="A300">
         <v>497</v>
       </c>
@@ -8540,7 +8540,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:6">
       <c r="A301">
         <v>497</v>
       </c>
@@ -8554,7 +8554,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:6">
       <c r="A302">
         <v>497</v>
       </c>
@@ -8568,7 +8568,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:6">
       <c r="A303">
         <v>497</v>
       </c>
@@ -8585,7 +8585,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:6">
       <c r="A304">
         <v>497</v>
       </c>
@@ -8599,7 +8599,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:6">
       <c r="A305">
         <v>497</v>
       </c>
@@ -8613,7 +8613,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:6">
       <c r="A306">
         <v>497</v>
       </c>
@@ -8627,7 +8627,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:6">
       <c r="A307">
         <v>497</v>
       </c>
@@ -8641,7 +8641,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:6">
       <c r="A308">
         <v>497</v>
       </c>
@@ -8655,7 +8655,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:6">
       <c r="A309">
         <v>497</v>
       </c>
@@ -8669,7 +8669,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:6">
       <c r="A310">
         <v>497</v>
       </c>
@@ -8683,7 +8683,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:6">
       <c r="A311">
         <v>497</v>
       </c>
@@ -8700,7 +8700,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:6">
       <c r="A312">
         <v>497</v>
       </c>
@@ -8717,7 +8717,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:6">
       <c r="A313">
         <v>497</v>
       </c>
@@ -8734,7 +8734,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:6">
       <c r="A314">
         <v>497</v>
       </c>
@@ -8751,7 +8751,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:6">
       <c r="A315">
         <v>497</v>
       </c>
@@ -8768,7 +8768,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:6">
       <c r="A316">
         <v>497</v>
       </c>
@@ -8785,7 +8785,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:6">
       <c r="A317">
         <v>497</v>
       </c>
@@ -8799,7 +8799,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:6">
       <c r="A318">
         <v>497</v>
       </c>
@@ -8816,7 +8816,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:6">
       <c r="A319">
         <v>497</v>
       </c>
@@ -8830,7 +8830,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:6">
       <c r="A320">
         <v>497</v>
       </c>
@@ -8847,7 +8847,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:6">
       <c r="A321">
         <v>497</v>
       </c>
@@ -8864,7 +8864,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:6">
       <c r="A322">
         <v>497</v>
       </c>
@@ -8878,7 +8878,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:6">
       <c r="A323">
         <v>497</v>
       </c>
@@ -8892,7 +8892,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:6">
       <c r="A324">
         <v>497</v>
       </c>
@@ -8906,7 +8906,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:6">
       <c r="A325">
         <v>497</v>
       </c>
@@ -8923,7 +8923,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:6">
       <c r="A326">
         <v>497</v>
       </c>
@@ -8940,7 +8940,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:6">
       <c r="A327">
         <v>497</v>
       </c>
@@ -8957,7 +8957,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:6">
       <c r="A328">
         <v>497</v>
       </c>
@@ -8974,7 +8974,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:6">
       <c r="A329">
         <v>497</v>
       </c>
@@ -8991,7 +8991,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:6">
       <c r="A330">
         <v>497</v>
       </c>
@@ -9008,7 +9008,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:6">
       <c r="A331">
         <v>497</v>
       </c>
@@ -9025,7 +9025,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:6">
       <c r="A332">
         <v>497</v>
       </c>
@@ -9042,7 +9042,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:6">
       <c r="A333">
         <v>497</v>
       </c>
@@ -9059,7 +9059,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:6">
       <c r="A334">
         <v>497</v>
       </c>
@@ -9073,7 +9073,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="335" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:6">
       <c r="A335">
         <v>497</v>
       </c>
@@ -9090,7 +9090,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="336" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:6">
       <c r="A336">
         <v>497</v>
       </c>
@@ -9107,7 +9107,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="337" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:6">
       <c r="A337">
         <v>497</v>
       </c>
@@ -9124,7 +9124,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="338" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:6">
       <c r="A338">
         <v>497</v>
       </c>
@@ -9141,7 +9141,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="339" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:6">
       <c r="A339">
         <v>497</v>
       </c>
@@ -9155,7 +9155,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="340" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:6">
       <c r="A340">
         <v>497</v>
       </c>
@@ -9169,7 +9169,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="341" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:6">
       <c r="A341">
         <v>497</v>
       </c>
@@ -9183,7 +9183,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="342" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:6">
       <c r="A342">
         <v>497</v>
       </c>
@@ -9197,7 +9197,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="343" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:6">
       <c r="A343">
         <v>497</v>
       </c>
@@ -9214,7 +9214,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="344" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:6">
       <c r="A344">
         <v>497</v>
       </c>
@@ -9231,7 +9231,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="345" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:6">
       <c r="A345">
         <v>497</v>
       </c>
@@ -9248,7 +9248,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="346" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:6">
       <c r="A346">
         <v>497</v>
       </c>
@@ -9265,7 +9265,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="347" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:6">
       <c r="A347">
         <v>497</v>
       </c>
@@ -9282,7 +9282,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="348" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:6">
       <c r="A348">
         <v>497</v>
       </c>
@@ -9299,7 +9299,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="349" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:6">
       <c r="A349">
         <v>497</v>
       </c>
@@ -9316,7 +9316,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="350" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:6">
       <c r="A350">
         <v>497</v>
       </c>
@@ -9333,7 +9333,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="351" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:6">
       <c r="A351">
         <v>497</v>
       </c>
@@ -9350,7 +9350,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="352" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:6">
       <c r="A352">
         <v>497</v>
       </c>
@@ -9367,7 +9367,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="353" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:6">
       <c r="A353">
         <v>497</v>
       </c>
@@ -9384,7 +9384,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="354" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:6">
       <c r="A354">
         <v>497</v>
       </c>
@@ -9401,7 +9401,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="355" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:6">
       <c r="A355">
         <v>497</v>
       </c>
@@ -9418,7 +9418,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="356" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:6">
       <c r="A356">
         <v>497</v>
       </c>
@@ -9435,7 +9435,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="357" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:6">
       <c r="A357">
         <v>497</v>
       </c>
@@ -9452,7 +9452,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="358" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:6">
       <c r="A358">
         <v>497</v>
       </c>
@@ -9469,7 +9469,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="359" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:6">
       <c r="A359">
         <v>497</v>
       </c>
@@ -9483,7 +9483,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="360" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:6">
       <c r="A360">
         <v>497</v>
       </c>
@@ -9497,7 +9497,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="361" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:6">
       <c r="A361">
         <v>497</v>
       </c>
@@ -9511,7 +9511,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="362" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:6">
       <c r="A362">
         <v>497</v>
       </c>
@@ -9525,7 +9525,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="363" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:6">
       <c r="A363">
         <v>497</v>
       </c>
@@ -9542,7 +9542,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="364" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:6">
       <c r="A364">
         <v>497</v>
       </c>
@@ -9559,7 +9559,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="365" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:6">
       <c r="A365">
         <v>497</v>
       </c>
@@ -9576,7 +9576,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="366" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:6">
       <c r="A366">
         <v>497</v>
       </c>
@@ -9590,7 +9590,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="367" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:6">
       <c r="A367">
         <v>497</v>
       </c>
@@ -9604,7 +9604,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="368" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:6">
       <c r="A368">
         <v>497</v>
       </c>
@@ -9618,7 +9618,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="369" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:6">
       <c r="A369">
         <v>497</v>
       </c>
@@ -9632,7 +9632,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="370" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:6">
       <c r="A370">
         <v>497</v>
       </c>
@@ -9649,7 +9649,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="371" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:6">
       <c r="A371">
         <v>497</v>
       </c>
@@ -9663,7 +9663,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="372" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:6">
       <c r="A372">
         <v>497</v>
       </c>
@@ -9677,7 +9677,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="373" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:6">
       <c r="A373">
         <v>497</v>
       </c>
@@ -9691,7 +9691,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="374" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:6">
       <c r="A374">
         <v>497</v>
       </c>
@@ -9705,7 +9705,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="375" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:6">
       <c r="A375">
         <v>497</v>
       </c>
@@ -9719,7 +9719,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="376" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:6">
       <c r="A376">
         <v>497</v>
       </c>
@@ -9733,7 +9733,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="377" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:6">
       <c r="A377">
         <v>497</v>
       </c>
@@ -9747,7 +9747,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="378" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:6">
       <c r="A378">
         <v>497</v>
       </c>
@@ -9764,7 +9764,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="379" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:6">
       <c r="A379">
         <v>497</v>
       </c>
@@ -9781,7 +9781,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="380" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:6">
       <c r="A380">
         <v>497</v>
       </c>
@@ -9798,7 +9798,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="381" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:6">
       <c r="A381">
         <v>497</v>
       </c>
@@ -9815,7 +9815,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="382" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:6">
       <c r="A382">
         <v>497</v>
       </c>
@@ -9832,7 +9832,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="383" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:6">
       <c r="A383">
         <v>497</v>
       </c>
@@ -9846,7 +9846,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="384" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:6">
       <c r="A384">
         <v>497</v>
       </c>
@@ -9863,7 +9863,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="385" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:6">
       <c r="A385">
         <v>497</v>
       </c>
@@ -9877,7 +9877,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="386" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:6">
       <c r="A386">
         <v>497</v>
       </c>
@@ -9891,7 +9891,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="387" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:6">
       <c r="A387">
         <v>497</v>
       </c>
@@ -9905,7 +9905,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="388" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:6">
       <c r="A388">
         <v>497</v>
       </c>
@@ -9922,7 +9922,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="389" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:6">
       <c r="A389">
         <v>497</v>
       </c>
@@ -9939,7 +9939,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="390" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:6">
       <c r="A390">
         <v>497</v>
       </c>
@@ -9953,7 +9953,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="391" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:6">
       <c r="A391">
         <v>497</v>
       </c>
@@ -9967,7 +9967,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="392" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:6">
       <c r="A392">
         <v>497</v>
       </c>
@@ -9981,7 +9981,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="393" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:6">
       <c r="A393">
         <v>497</v>
       </c>
@@ -9995,7 +9995,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="394" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:6">
       <c r="A394">
         <v>497</v>
       </c>
@@ -10012,7 +10012,7 @@
         <v>0.345391</v>
       </c>
     </row>
-    <row r="395" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:6">
       <c r="A395">
         <v>497</v>
       </c>
@@ -10026,7 +10026,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="396" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:6">
       <c r="A396">
         <v>497</v>
       </c>
@@ -10040,7 +10040,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="397" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:6">
       <c r="A397">
         <v>497</v>
       </c>
@@ -10060,7 +10060,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="398" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:6">
       <c r="A398">
         <v>497</v>
       </c>
@@ -10080,7 +10080,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="399" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:6">
       <c r="A399">
         <v>497</v>
       </c>
@@ -10100,7 +10100,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="400" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:6">
       <c r="A400">
         <v>497</v>
       </c>
@@ -10117,7 +10117,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="401" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:6">
       <c r="A401">
         <v>497</v>
       </c>
@@ -10131,7 +10131,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="402" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:6">
       <c r="A402">
         <v>497</v>
       </c>
@@ -10145,7 +10145,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="403" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:6">
       <c r="A403">
         <v>497</v>
       </c>
@@ -10162,7 +10162,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="404" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:6">
       <c r="A404">
         <v>497</v>
       </c>
@@ -10176,7 +10176,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="405" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:6">
       <c r="A405">
         <v>497</v>
       </c>
@@ -10196,7 +10196,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="406" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:6">
       <c r="A406">
         <v>497</v>
       </c>
@@ -10216,7 +10216,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="407" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:6">
       <c r="A407">
         <v>497</v>
       </c>
@@ -10233,7 +10233,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="408" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:6">
       <c r="A408">
         <v>497</v>
       </c>
@@ -10253,7 +10253,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="409" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:6">
       <c r="A409">
         <v>497</v>
       </c>
@@ -10270,7 +10270,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="410" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:6">
       <c r="A410">
         <v>497</v>
       </c>
@@ -10284,7 +10284,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="411" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:6">
       <c r="A411">
         <v>497</v>
       </c>
@@ -10301,7 +10301,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="412" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:6">
       <c r="A412">
         <v>497</v>
       </c>
@@ -10321,7 +10321,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="413" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:6">
       <c r="A413">
         <v>497</v>
       </c>
@@ -10341,7 +10341,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="414" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:6">
       <c r="A414">
         <v>497</v>
       </c>
@@ -10361,7 +10361,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="415" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:6">
       <c r="A415">
         <v>497</v>
       </c>
@@ -10378,7 +10378,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="416" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:6">
       <c r="A416">
         <v>497</v>
       </c>
@@ -10398,7 +10398,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="417" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:6">
       <c r="A417">
         <v>497</v>
       </c>
@@ -10412,7 +10412,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="418" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:6">
       <c r="A418">
         <v>497</v>
       </c>
@@ -10432,7 +10432,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="419" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:6">
       <c r="A419">
         <v>497</v>
       </c>
@@ -10449,7 +10449,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="420" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:6">
       <c r="A420">
         <v>497</v>
       </c>
@@ -10463,7 +10463,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="421" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:6">
       <c r="A421">
         <v>497</v>
       </c>
@@ -10480,7 +10480,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="422" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:6">
       <c r="A422">
         <v>497</v>
       </c>
@@ -10494,7 +10494,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="423" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:6">
       <c r="A423">
         <v>497</v>
       </c>
@@ -10514,7 +10514,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="424" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:6">
       <c r="A424">
         <v>497</v>
       </c>
@@ -10531,7 +10531,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="425" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:6">
       <c r="A425">
         <v>497</v>
       </c>
@@ -10551,7 +10551,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="426" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:6">
       <c r="A426">
         <v>497</v>
       </c>
@@ -10571,7 +10571,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="427" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:6">
       <c r="A427">
         <v>497</v>
       </c>
@@ -10588,7 +10588,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="428" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:6">
       <c r="A428">
         <v>497</v>
       </c>
@@ -10608,7 +10608,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="429" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:6">
       <c r="A429">
         <v>497</v>
       </c>
@@ -10622,7 +10622,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="430" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:6">
       <c r="A430">
         <v>497</v>
       </c>
@@ -10636,7 +10636,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="431" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:6">
       <c r="A431">
         <v>497</v>
       </c>
@@ -10650,7 +10650,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="432" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:6">
       <c r="A432">
         <v>497</v>
       </c>
@@ -10667,7 +10667,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="433" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:6">
       <c r="A433">
         <v>497</v>
       </c>
@@ -10684,7 +10684,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="434" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:6">
       <c r="A434">
         <v>497</v>
       </c>
@@ -10701,7 +10701,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="435" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:6">
       <c r="A435">
         <v>497</v>
       </c>
@@ -10715,7 +10715,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="436" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:6">
       <c r="A436">
         <v>497</v>
       </c>
@@ -10729,7 +10729,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="437" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:6">
       <c r="A437">
         <v>497</v>
       </c>
@@ -10743,7 +10743,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="438" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:6">
       <c r="A438">
         <v>497</v>
       </c>
@@ -10760,7 +10760,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="439" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:6">
       <c r="A439">
         <v>497</v>
       </c>
@@ -10774,7 +10774,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="440" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:6">
       <c r="A440">
         <v>497</v>
       </c>
@@ -10791,7 +10791,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="441" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:6">
       <c r="A441">
         <v>497</v>
       </c>
@@ -10808,7 +10808,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="442" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:6">
       <c r="A442">
         <v>497</v>
       </c>
@@ -10825,7 +10825,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="443" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:6">
       <c r="A443">
         <v>497</v>
       </c>
@@ -10842,7 +10842,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="444" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:6">
       <c r="A444">
         <v>497</v>
       </c>
@@ -10859,7 +10859,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="445" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:6">
       <c r="A445">
         <v>497</v>
       </c>
@@ -10873,7 +10873,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="446" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:6">
       <c r="A446">
         <v>497</v>
       </c>
@@ -10890,7 +10890,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="447" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:6">
       <c r="A447">
         <v>497</v>
       </c>
@@ -10907,7 +10907,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="448" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:6">
       <c r="A448">
         <v>497</v>
       </c>
@@ -10924,7 +10924,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="449" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:6">
       <c r="A449">
         <v>497</v>
       </c>
@@ -10941,7 +10941,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="450" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:6">
       <c r="A450">
         <v>497</v>
       </c>
@@ -10955,7 +10955,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="451" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:6">
       <c r="A451">
         <v>497</v>
       </c>
@@ -10972,7 +10972,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="452" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:6">
       <c r="A452">
         <v>497</v>
       </c>
@@ -10986,7 +10986,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="453" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:6">
       <c r="A453">
         <v>497</v>
       </c>
@@ -11003,7 +11003,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="454" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:6">
       <c r="A454">
         <v>497</v>
       </c>
@@ -11020,7 +11020,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="455" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:6">
       <c r="A455">
         <v>497</v>
       </c>
@@ -11034,7 +11034,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="456" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:6">
       <c r="A456">
         <v>497</v>
       </c>
@@ -11051,7 +11051,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="457" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:6">
       <c r="A457">
         <v>497</v>
       </c>
@@ -11065,7 +11065,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="458" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:6">
       <c r="A458">
         <v>497</v>
       </c>
@@ -11082,7 +11082,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="459" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:6">
       <c r="A459">
         <v>497</v>
       </c>
@@ -11096,7 +11096,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="460" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:6">
       <c r="A460">
         <v>497</v>
       </c>
@@ -11113,7 +11113,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="461" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:6">
       <c r="A461">
         <v>497</v>
       </c>
@@ -11130,7 +11130,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="462" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:6">
       <c r="A462">
         <v>497</v>
       </c>
@@ -11147,7 +11147,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="463" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:6">
       <c r="A463">
         <v>497</v>
       </c>
@@ -11164,7 +11164,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="464" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:6">
       <c r="A464">
         <v>497</v>
       </c>
@@ -11181,7 +11181,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="465" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:6">
       <c r="A465">
         <v>497</v>
       </c>
@@ -11195,7 +11195,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="466" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:6">
       <c r="A466">
         <v>497</v>
       </c>
@@ -11212,7 +11212,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="467" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:6">
       <c r="A467">
         <v>497</v>
       </c>
@@ -11226,7 +11226,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="468" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:6">
       <c r="A468">
         <v>497</v>
       </c>
@@ -11240,7 +11240,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="469" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:6">
       <c r="A469">
         <v>497</v>
       </c>
@@ -11254,7 +11254,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="470" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:6">
       <c r="A470">
         <v>497</v>
       </c>
@@ -11268,7 +11268,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="471" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:6">
       <c r="A471">
         <v>497</v>
       </c>
@@ -11282,7 +11282,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="472" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:6">
       <c r="A472">
         <v>497</v>
       </c>
@@ -11299,7 +11299,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="473" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:6">
       <c r="A473">
         <v>497</v>
       </c>
@@ -11313,7 +11313,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="474" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:6">
       <c r="A474">
         <v>497</v>
       </c>
@@ -11327,7 +11327,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="475" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:6">
       <c r="A475">
         <v>497</v>
       </c>
@@ -11344,7 +11344,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="476" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:6">
       <c r="A476">
         <v>497</v>
       </c>
@@ -11358,7 +11358,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="477" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:6">
       <c r="A477">
         <v>497</v>
       </c>
@@ -11372,7 +11372,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="478" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:6">
       <c r="A478">
         <v>497</v>
       </c>
@@ -11389,7 +11389,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="479" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:6">
       <c r="A479">
         <v>497</v>
       </c>
@@ -11406,7 +11406,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="480" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:6">
       <c r="A480">
         <v>497</v>
       </c>
@@ -11423,7 +11423,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="481" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:6">
       <c r="A481">
         <v>497</v>
       </c>
@@ -11437,7 +11437,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="482" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:6">
       <c r="A482">
         <v>497</v>
       </c>
@@ -11451,7 +11451,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="483" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:6">
       <c r="A483">
         <v>497</v>
       </c>
@@ -11465,7 +11465,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="484" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:6">
       <c r="A484">
         <v>497</v>
       </c>
@@ -11479,7 +11479,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="485" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:6">
       <c r="A485">
         <v>497</v>
       </c>
@@ -11496,7 +11496,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="486" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:6">
       <c r="A486">
         <v>497</v>
       </c>
@@ -11513,7 +11513,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="487" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:6">
       <c r="A487">
         <v>497</v>
       </c>
@@ -11530,7 +11530,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="488" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:6">
       <c r="A488">
         <v>497</v>
       </c>
@@ -11547,7 +11547,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="489" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:6">
       <c r="A489">
         <v>497</v>
       </c>
@@ -11561,7 +11561,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="490" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:6">
       <c r="A490">
         <v>497</v>
       </c>
@@ -11575,7 +11575,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="491" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:6">
       <c r="A491">
         <v>497</v>
       </c>
@@ -11589,7 +11589,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="492" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:6">
       <c r="A492">
         <v>497</v>
       </c>
@@ -11603,7 +11603,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="493" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:6">
       <c r="A493">
         <v>497</v>
       </c>
@@ -11617,7 +11617,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="494" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:6">
       <c r="A494">
         <v>497</v>
       </c>
@@ -11634,7 +11634,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="495" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:6">
       <c r="A495">
         <v>497</v>
       </c>
@@ -11648,7 +11648,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="496" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:6">
       <c r="A496">
         <v>497</v>
       </c>
@@ -11665,7 +11665,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="497" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:6">
       <c r="A497">
         <v>497</v>
       </c>
@@ -11682,7 +11682,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="498" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:6">
       <c r="A498">
         <v>497</v>
       </c>
@@ -11699,7 +11699,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="499" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:6">
       <c r="A499">
         <v>497</v>
       </c>
@@ -11713,7 +11713,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="500" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:6">
       <c r="A500">
         <v>497</v>
       </c>
@@ -11727,7 +11727,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="501" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:6">
       <c r="A501">
         <v>497</v>
       </c>
@@ -11741,7 +11741,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="502" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:6">
       <c r="A502">
         <v>497</v>
       </c>
@@ -11755,7 +11755,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="503" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:6">
       <c r="A503">
         <v>497</v>
       </c>
@@ -11769,7 +11769,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="504" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:6">
       <c r="A504">
         <v>497</v>
       </c>
@@ -11783,7 +11783,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="505" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:6">
       <c r="A505">
         <v>497</v>
       </c>
@@ -11797,7 +11797,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="506" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:6">
       <c r="A506">
         <v>497</v>
       </c>
@@ -11814,7 +11814,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="507" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:6">
       <c r="A507">
         <v>497</v>
       </c>
@@ -11828,7 +11828,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="508" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:6">
       <c r="A508">
         <v>497</v>
       </c>
@@ -11842,7 +11842,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="509" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:6">
       <c r="A509">
         <v>497</v>
       </c>
@@ -11856,7 +11856,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="510" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:6">
       <c r="A510">
         <v>497</v>
       </c>
@@ -11870,7 +11870,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="511" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:6">
       <c r="A511">
         <v>497</v>
       </c>
@@ -11884,7 +11884,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="512" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:6">
       <c r="A512">
         <v>497</v>
       </c>
@@ -11898,7 +11898,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="513" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:6">
       <c r="A513">
         <v>497</v>
       </c>
@@ -11912,7 +11912,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="514" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:6">
       <c r="A514">
         <v>497</v>
       </c>
@@ -11929,7 +11929,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="515" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:6">
       <c r="A515">
         <v>497</v>
       </c>
@@ -11946,7 +11946,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="516" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:6">
       <c r="A516">
         <v>497</v>
       </c>
@@ -11963,7 +11963,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="517" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:6">
       <c r="A517">
         <v>497</v>
       </c>
@@ -11980,7 +11980,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="518" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:6">
       <c r="A518">
         <v>497</v>
       </c>
@@ -11997,7 +11997,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="519" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:6">
       <c r="A519">
         <v>497</v>
       </c>
@@ -12014,7 +12014,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="520" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:6">
       <c r="A520">
         <v>497</v>
       </c>
@@ -12028,7 +12028,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="521" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:6">
       <c r="A521">
         <v>497</v>
       </c>
@@ -12045,7 +12045,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="522" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:6">
       <c r="A522">
         <v>497</v>
       </c>
@@ -12062,7 +12062,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="523" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:6">
       <c r="A523">
         <v>497</v>
       </c>
@@ -12079,7 +12079,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="524" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:6">
       <c r="A524">
         <v>497</v>
       </c>
@@ -12096,7 +12096,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="525" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:6">
       <c r="A525">
         <v>497</v>
       </c>
@@ -12113,7 +12113,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="526" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:6">
       <c r="A526">
         <v>497</v>
       </c>
@@ -12130,7 +12130,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="527" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:6">
       <c r="A527">
         <v>497</v>
       </c>
@@ -12144,7 +12144,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="528" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:6">
       <c r="A528">
         <v>497</v>
       </c>
@@ -12161,7 +12161,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="529" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:6">
       <c r="A529">
         <v>497</v>
       </c>
@@ -12178,7 +12178,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="530" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:6">
       <c r="A530">
         <v>497</v>
       </c>
@@ -12195,7 +12195,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="531" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:6">
       <c r="A531">
         <v>497</v>
       </c>
@@ -12212,7 +12212,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="532" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:6">
       <c r="A532">
         <v>497</v>
       </c>
@@ -12229,7 +12229,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="533" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:6">
       <c r="A533">
         <v>497</v>
       </c>
@@ -12246,7 +12246,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="534" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:6">
       <c r="A534">
         <v>497</v>
       </c>
@@ -12260,7 +12260,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="535" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:6">
       <c r="A535">
         <v>497</v>
       </c>
@@ -12277,7 +12277,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="536" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:6">
       <c r="A536">
         <v>497</v>
       </c>
@@ -12291,7 +12291,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="537" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:6">
       <c r="A537">
         <v>497</v>
       </c>
@@ -12305,7 +12305,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="538" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:6">
       <c r="A538">
         <v>497</v>
       </c>
@@ -12322,7 +12322,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="539" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:6">
       <c r="A539">
         <v>497</v>
       </c>
@@ -12339,7 +12339,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="540" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:6">
       <c r="A540">
         <v>497</v>
       </c>
@@ -12356,7 +12356,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="541" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:6">
       <c r="A541">
         <v>497</v>
       </c>
@@ -12373,7 +12373,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="542" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:6">
       <c r="A542">
         <v>497</v>
       </c>
@@ -12390,7 +12390,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="543" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:6">
       <c r="A543">
         <v>497</v>
       </c>
@@ -12404,7 +12404,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="544" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:6">
       <c r="A544">
         <v>497</v>
       </c>
@@ -12421,7 +12421,7 @@
         <v>8.0101000000000006E-2</v>
       </c>
     </row>
-    <row r="545" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:6">
       <c r="A545">
         <v>497</v>
       </c>
@@ -12435,7 +12435,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="546" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:6">
       <c r="A546">
         <v>497</v>
       </c>
@@ -12449,7 +12449,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="547" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:6">
       <c r="A547">
         <v>497</v>
       </c>
@@ -12469,7 +12469,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="548" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:6">
       <c r="A548">
         <v>497</v>
       </c>
@@ -12489,7 +12489,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="549" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:6">
       <c r="A549">
         <v>497</v>
       </c>
@@ -12509,7 +12509,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="550" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:6">
       <c r="A550">
         <v>497</v>
       </c>
@@ -12526,7 +12526,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="551" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:6">
       <c r="A551">
         <v>497</v>
       </c>
@@ -12540,7 +12540,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="552" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:6">
       <c r="A552">
         <v>497</v>
       </c>
@@ -12554,7 +12554,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="553" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:6">
       <c r="A553">
         <v>497</v>
       </c>
@@ -12571,7 +12571,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="554" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:6">
       <c r="A554">
         <v>497</v>
       </c>
@@ -12588,7 +12588,7 @@
         <v>1.277239</v>
       </c>
     </row>
-    <row r="555" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:6">
       <c r="A555">
         <v>497</v>
       </c>
@@ -12608,7 +12608,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="556" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:6">
       <c r="A556">
         <v>497</v>
       </c>
@@ -12628,7 +12628,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="557" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:6">
       <c r="A557">
         <v>497</v>
       </c>
@@ -12645,7 +12645,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="558" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:6">
       <c r="A558">
         <v>497</v>
       </c>
@@ -12665,7 +12665,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="559" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:6">
       <c r="A559">
         <v>497</v>
       </c>
@@ -12682,7 +12682,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="560" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:6">
       <c r="A560">
         <v>497</v>
       </c>
@@ -12699,7 +12699,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="561" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:6">
       <c r="A561">
         <v>497</v>
       </c>
@@ -12716,7 +12716,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="562" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:6">
       <c r="A562">
         <v>497</v>
       </c>
@@ -12733,7 +12733,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="563" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:6">
       <c r="A563">
         <v>497</v>
       </c>
@@ -12753,7 +12753,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="564" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:6">
       <c r="A564">
         <v>497</v>
       </c>
@@ -12773,7 +12773,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="565" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:6">
       <c r="A565">
         <v>497</v>
       </c>
@@ -12793,7 +12793,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="566" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:6">
       <c r="A566">
         <v>497</v>
       </c>
@@ -12810,7 +12810,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="567" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:6">
       <c r="A567">
         <v>497</v>
       </c>
@@ -12830,7 +12830,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="568" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:6">
       <c r="A568">
         <v>497</v>
       </c>
@@ -12847,7 +12847,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="569" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:6">
       <c r="A569">
         <v>497</v>
       </c>
@@ -12867,7 +12867,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="570" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:6">
       <c r="A570">
         <v>497</v>
       </c>
@@ -12884,7 +12884,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="571" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:6">
       <c r="A571">
         <v>497</v>
       </c>
@@ -12898,7 +12898,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="572" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:6">
       <c r="A572">
         <v>497</v>
       </c>
@@ -12915,7 +12915,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="573" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:6">
       <c r="A573">
         <v>497</v>
       </c>
@@ -12929,7 +12929,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="574" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:6">
       <c r="A574">
         <v>497</v>
       </c>
@@ -12943,7 +12943,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="575" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:6">
       <c r="A575">
         <v>497</v>
       </c>
@@ -12960,7 +12960,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="576" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:6">
       <c r="A576">
         <v>497</v>
       </c>
@@ -12977,7 +12977,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="577" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:6">
       <c r="A577">
         <v>497</v>
       </c>
@@ -12997,7 +12997,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="578" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:6">
       <c r="A578">
         <v>497</v>
       </c>
@@ -13017,7 +13017,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="579" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:6">
       <c r="A579">
         <v>497</v>
       </c>
@@ -13031,7 +13031,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="580" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:6">
       <c r="A580">
         <v>497</v>
       </c>
